--- a/data/Harris 2010 isotherm paper.xlsx
+++ b/data/Harris 2010 isotherm paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asteen1/Dropbox (Personal)/Drew/misc/cell_depth_integration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F34F90-AB35-2B44-A65D-5E0F95A2B527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D94A7D-0E04-2E4C-AB4C-3B432A154027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21000" yWindow="7920" windowWidth="28040" windowHeight="17440" xr2:uid="{D2076087-000C-2C4F-A300-680B7A89BF29}"/>
   </bookViews>
@@ -25,18 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>x.km.100C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>x.km.200C</t>
   </si>
   <si>
-    <t>z.km.100C</t>
+    <t>z.km.200C</t>
   </si>
   <si>
-    <t>z.km.200C</t>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>x.km</t>
+  </si>
+  <si>
+    <t>z.km</t>
   </si>
 </sst>
 </file>
@@ -138,10 +141,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.3139486274327701</c:v>
                 </c:pt>
@@ -187,37 +190,37 @@
                 <c:pt idx="18">
                   <c:v>99.589205258023995</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>109.63184541780799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>118.880765479121</c:v>
+                </c:pt>
                 <c:pt idx="23">
-                  <c:v>109.63184541780799</c:v>
+                  <c:v>130.243671327047</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>137.11403223558901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>118.880765479121</c:v>
+                  <c:v>145.568489014817</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>153.494913837149</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>130.243671327047</c:v>
+                  <c:v>164.32755817734201</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>137.11403223558901</c:v>
+                  <c:v>175.95243624878</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>145.568489014817</c:v>
+                  <c:v>188.10608946072699</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>153.494913837149</c:v>
+                  <c:v>194.97570718565601</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>164.32755817734201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>175.95243624878</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>188.10608946072699</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>194.97570718565601</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>199.46676575781501</c:v>
                 </c:pt>
               </c:numCache>
@@ -225,10 +228,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>5.0320962422778397</c:v>
                 </c:pt>
@@ -274,37 +277,37 @@
                 <c:pt idx="18">
                   <c:v>10.662826884667099</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3842259278182691</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9517395141436804</c:v>
+                </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3842259278182691</c:v>
+                  <c:v>5.2320126341213902</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3688048678526297</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.9517395141436804</c:v>
+                  <c:v>4.3450229922429902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0414324864136404</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.2320126341213902</c:v>
+                  <c:v>3.7296669608434798</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.3688048678526297</c:v>
+                  <c:v>3.6969668818802202</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.3450229922429902</c:v>
+                  <c:v>3.3814854382460502</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0414324864136404</c:v>
+                  <c:v>3.0808676668679098</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.7296669608434798</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.6969668818802202</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3814854382460502</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.0808676668679098</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>3.3495285428955901</c:v>
                 </c:pt>
               </c:numCache>
@@ -1151,13 +1154,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -1485,29 +1488,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5465F7-C159-5D4E-A224-15A33340CC63}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.3139486274327701</v>
       </c>
@@ -1515,13 +1521,10 @@
         <v>5.0320962422778397</v>
       </c>
       <c r="C2">
-        <v>1.3039156486599499</v>
-      </c>
-      <c r="D2">
-        <v>12.627061173301099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6.0692089739421098</v>
       </c>
@@ -1529,13 +1532,10 @@
         <v>5.3000139346927204</v>
       </c>
       <c r="C3">
-        <v>6.5872079520646496</v>
-      </c>
-      <c r="D3">
-        <v>13.1747874959357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10.2953225881369</v>
       </c>
@@ -1543,13 +1543,10 @@
         <v>6.13200798922382</v>
       </c>
       <c r="C4">
-        <v>11.605926889312</v>
-      </c>
-      <c r="D4">
-        <v>14.004551999628299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15.8420734822797</v>
       </c>
@@ -1557,13 +1554,10 @@
         <v>7.2415811231362204</v>
       </c>
       <c r="C5">
-        <v>18.209484880858302</v>
-      </c>
-      <c r="D5">
-        <v>15.1111523990895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>23.765897161967501</v>
       </c>
@@ -1571,13 +1565,10 @@
         <v>8.9070555994240195</v>
       </c>
       <c r="C6">
-        <v>23.4920340006502</v>
-      </c>
-      <c r="D6">
-        <v>16.221468716614702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>32.482326164707999</v>
       </c>
@@ -1585,21 +1576,15 @@
         <v>10.570300524873399</v>
       </c>
       <c r="C7">
-        <v>29.303358260950301</v>
-      </c>
-      <c r="D7">
-        <v>17.049003669468998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8">
-        <v>35.378512703794797</v>
-      </c>
-      <c r="D8">
-        <v>18.157090436155801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>38.557480607552598</v>
       </c>
@@ -1607,13 +1592,10 @@
         <v>11.678387291560201</v>
       </c>
       <c r="C9">
-        <v>40.925263597937601</v>
-      </c>
-      <c r="D9">
-        <v>19.2666635700682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>44.103859909888897</v>
       </c>
@@ -1621,13 +1603,10 @@
         <v>13.0692554229179</v>
       </c>
       <c r="C10">
-        <v>46.736216266431299</v>
-      </c>
-      <c r="D10">
-        <v>20.375493520367801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>51.764224998838699</v>
       </c>
@@ -1635,13 +1614,10 @@
         <v>14.172883087927801</v>
       </c>
       <c r="C11">
-        <v>53.075572483626701</v>
-      </c>
-      <c r="D11">
-        <v>21.482837103441799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>58.631241581123099</v>
       </c>
@@ -1649,21 +1625,15 @@
         <v>15.841330298666801</v>
       </c>
       <c r="C12">
-        <v>58.621951785963098</v>
-      </c>
-      <c r="D12">
-        <v>22.873705234799498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13">
-        <v>63.6399275395977</v>
-      </c>
-      <c r="D13">
-        <v>24.2660597333828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>66.820381810580997</v>
       </c>
@@ -1671,13 +1641,10 @@
         <v>16.6621765990059</v>
       </c>
       <c r="C14">
-        <v>67.864554786566899</v>
-      </c>
-      <c r="D14">
-        <v>26.2232337776951</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>72.898508987876795</v>
       </c>
@@ -1685,13 +1652,10 @@
         <v>15.5199033861303</v>
       </c>
       <c r="C15">
-        <v>73.145989130939597</v>
-      </c>
-      <c r="D15">
-        <v>28.177435087556201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>79.240837939523402</v>
       </c>
@@ -1699,21 +1663,15 @@
         <v>14.3768869896418</v>
       </c>
       <c r="C16">
-        <v>77.899019926610606</v>
-      </c>
-      <c r="D16">
-        <v>30.133122764643002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C17">
-        <v>84.500719959124893</v>
-      </c>
-      <c r="D17">
-        <v>32.646198151330701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>87.433322495238897</v>
       </c>
@@ -1721,21 +1679,15 @@
         <v>12.6660783129731</v>
       </c>
       <c r="C18">
-        <v>89.781039528078395</v>
-      </c>
-      <c r="D18">
-        <v>35.4442844535277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C19">
-        <v>95.061730688838296</v>
-      </c>
-      <c r="D19">
-        <v>37.961075758279499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>99.589205258023995</v>
       </c>
@@ -1743,212 +1695,534 @@
         <v>10.662826884667099</v>
       </c>
       <c r="C20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>109.63184541780799</v>
+      </c>
+      <c r="B21">
+        <v>8.3842259278182691</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>118.880765479121</v>
+      </c>
+      <c r="B23">
+        <v>6.9517395141436804</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>130.243671327047</v>
+      </c>
+      <c r="B25">
+        <v>5.2320126341213902</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>137.11403223558901</v>
+      </c>
+      <c r="B26">
+        <v>4.3688048678526297</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>145.568489014817</v>
+      </c>
+      <c r="B27">
+        <v>4.3450229922429902</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>153.494913837149</v>
+      </c>
+      <c r="B28">
+        <v>4.0414324864136404</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>164.32755817734201</v>
+      </c>
+      <c r="B29">
+        <v>3.7296669608434798</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>175.95243624878</v>
+      </c>
+      <c r="B30">
+        <v>3.6969668818802202</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>188.10608946072699</v>
+      </c>
+      <c r="B31">
+        <v>3.3814854382460502</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>194.97570718565601</v>
+      </c>
+      <c r="B32">
+        <v>3.0808676668679098</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>199.46676575781501</v>
+      </c>
+      <c r="B33">
+        <v>3.3495285428955901</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1.3039156486599499</v>
+      </c>
+      <c r="B34">
+        <v>12.627061173301099</v>
+      </c>
+      <c r="C34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6.5872079520646496</v>
+      </c>
+      <c r="B35">
+        <v>13.1747874959357</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>11.605926889312</v>
+      </c>
+      <c r="B36">
+        <v>14.004551999628299</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>18.209484880858302</v>
+      </c>
+      <c r="B37">
+        <v>15.1111523990895</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>23.4920340006502</v>
+      </c>
+      <c r="B38">
+        <v>16.221468716614702</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>29.303358260950301</v>
+      </c>
+      <c r="B39">
+        <v>17.049003669468998</v>
+      </c>
+      <c r="C39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>35.378512703794797</v>
+      </c>
+      <c r="B40">
+        <v>18.157090436155801</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40.925263597937601</v>
+      </c>
+      <c r="B41">
+        <v>19.2666635700682</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>46.736216266431299</v>
+      </c>
+      <c r="B42">
+        <v>20.375493520367801</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>53.075572483626701</v>
+      </c>
+      <c r="B43">
+        <v>21.482837103441799</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>58.621951785963098</v>
+      </c>
+      <c r="B44">
+        <v>22.873705234799498</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>63.6399275395977</v>
+      </c>
+      <c r="B45">
+        <v>24.2660597333828</v>
+      </c>
+      <c r="C45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>67.864554786566899</v>
+      </c>
+      <c r="B46">
+        <v>26.2232337776951</v>
+      </c>
+      <c r="C46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>73.145989130939597</v>
+      </c>
+      <c r="B47">
+        <v>28.177435087556201</v>
+      </c>
+      <c r="C47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>77.899019926610606</v>
+      </c>
+      <c r="B48">
+        <v>30.133122764643002</v>
+      </c>
+      <c r="C48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>84.500719959124893</v>
+      </c>
+      <c r="B49">
+        <v>32.646198151330701</v>
+      </c>
+      <c r="C49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>89.781039528078395</v>
+      </c>
+      <c r="B50">
+        <v>35.4442844535277</v>
+      </c>
+      <c r="C50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>95.061730688838296</v>
+      </c>
+      <c r="B51">
+        <v>37.961075758279499</v>
+      </c>
+      <c r="C51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>99.550188118351997</v>
       </c>
-      <c r="D20">
+      <c r="B52">
         <v>40.198801616424298</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C21">
+      <c r="C52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>103.509498815551</v>
       </c>
-      <c r="D21">
+      <c r="B53">
         <v>43.000603836685301</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C22">
+      <c r="C53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>106.14891541641499</v>
       </c>
-      <c r="D22">
+      <c r="B54">
         <v>44.962236982674497</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23">
+      <c r="C54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>106.14891541641499</v>
       </c>
-      <c r="D23">
+      <c r="B55">
         <v>44.962236982674497</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24">
+      <c r="C55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>108.019136978029</v>
       </c>
-      <c r="D24">
+      <c r="B56">
         <v>29.2045148404477</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>109.63184541780799</v>
-      </c>
-      <c r="B25">
-        <v>8.3842259278182691</v>
-      </c>
-      <c r="C25">
+      <c r="C56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>109.87449486738799</v>
       </c>
-      <c r="D25">
+      <c r="B57">
         <v>24.698592596033201</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26">
+      <c r="C57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>113.049375261275</v>
       </c>
-      <c r="D26">
+      <c r="B58">
         <v>21.314134423335901</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>118.880765479121</v>
-      </c>
-      <c r="B27">
-        <v>6.9517395141436804</v>
-      </c>
-      <c r="C27">
+      <c r="C58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>117.810581076687</v>
       </c>
-      <c r="D27">
+      <c r="B59">
         <v>17.081332156625901</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28">
+      <c r="C59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>123.098332481768</v>
       </c>
-      <c r="D28">
+      <c r="B60">
         <v>14.2535185099168</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>130.243671327047</v>
-      </c>
-      <c r="B29">
-        <v>5.2320126341213902</v>
-      </c>
-      <c r="C29">
+      <c r="C60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>130.234753123693</v>
       </c>
-      <c r="D29">
+      <c r="B61">
         <v>11.983092572808699</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>137.11403223558901</v>
-      </c>
-      <c r="B30">
-        <v>4.3688048678526297</v>
-      </c>
-      <c r="C30">
+      <c r="C61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>137.89957731432</v>
       </c>
-      <c r="D30">
+      <c r="B62">
         <v>9.7111802684750508</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>145.568489014817</v>
-      </c>
-      <c r="B31">
-        <v>4.3450229922429902</v>
-      </c>
-      <c r="C31">
+      <c r="C62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>145.82674532026499</v>
       </c>
-      <c r="D31">
+      <c r="B63">
         <v>8.8449997677550893</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>153.494913837149</v>
-      </c>
-      <c r="B32">
-        <v>4.0414324864136404</v>
-      </c>
-      <c r="C32">
+      <c r="C63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>155.33949556412199</v>
       </c>
-      <c r="D32">
+      <c r="B64">
         <v>7.6930651679130202</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>164.32755817734201</v>
-      </c>
-      <c r="B33">
-        <v>3.7296669608434798</v>
-      </c>
-      <c r="C33">
+      <c r="C64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>163.26629197826099</v>
       </c>
-      <c r="D33">
+      <c r="B65">
         <v>7.1081796646383602</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>175.95243624878</v>
-      </c>
-      <c r="B34">
-        <v>3.6969668818802202</v>
-      </c>
-      <c r="C34">
+      <c r="C65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>173.57016117794601</v>
       </c>
-      <c r="D34">
+      <c r="B66">
         <v>7.0791955037391103</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>188.10608946072699</v>
-      </c>
-      <c r="B35">
-        <v>3.3814854382460502</v>
-      </c>
-      <c r="C35">
+      <c r="C66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>184.93046588322699</v>
       </c>
-      <c r="D35">
+      <c r="B67">
         <v>7.3285336058339601</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>194.97570718565601</v>
-      </c>
-      <c r="B36">
-        <v>3.0808676668679098</v>
-      </c>
-      <c r="C36">
+      <c r="C67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>192.85689070555901</v>
       </c>
-      <c r="D36">
+      <c r="B68">
         <v>7.0249431000045996</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>199.46676575781501</v>
-      </c>
-      <c r="B37">
-        <v>3.3495285428955901</v>
-      </c>
-      <c r="C37">
+      <c r="C68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>199.46193506433099</v>
       </c>
-      <c r="D37">
+      <c r="B69">
         <v>7.0063635096845696</v>
+      </c>
+      <c r="C69">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
